--- a/biology/Botanique/Liste_des_espèces_du_genre_Eucalyptus/Liste_des_espèces_du_genre_Eucalyptus.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Eucalyptus/Liste_des_espèces_du_genre_Eucalyptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Eucalyptus</t>
+          <t>Liste_des_espèces_du_genre_Eucalyptus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le genre Eucalyptus comprend environ 760 espèces. Cet article en fait la liste des espèces acceptées par l'Australian Plant Census à la date de février 2019[1]. Plusieurs espèces habitant en dehors de l'Australie, notamment E. orophila, E. urophylla et E. wetarensis sont listées dans la World Checklist of Selected Plant Families.
+Le genre Eucalyptus comprend environ 760 espèces. Cet article en fait la liste des espèces acceptées par l'Australian Plant Census à la date de février 2019. Plusieurs espèces habitant en dehors de l'Australie, notamment E. orophila, E. urophylla et E. wetarensis sont listées dans la World Checklist of Selected Plant Families.
 Sommaire :
 Haut – A
 B
@@ -1099,7 +1111,7 @@
 Eucalyptus mimica Brooker &amp; Hopper
 Eucalyptus mimica subsp. continens Brooker &amp; Hopper
 Eucalyptus mimica subsp. mimica
-Eucalyptus miniata A.Cunn.</t>
+Eucalyptus miniata A.Cunn. ex</t>
         </is>
       </c>
     </row>
